--- a/tools/src/test/resources/data/jp/gr/java_conf/nkzw/tbt/tools/TgData/table_design.xlsx
+++ b/tools/src/test/resources/data/jp/gr/java_conf/nkzw/tbt/tools/TgData/table_design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakazawasugio/github/tsurugi-batch-template/app/src/test/resources/data/jp/gr/java_conf/nkzw/tbt/tools/TgData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakazawasugio/github/tsurugi-batch-template/tools/src/test/resources/data/jp/gr/java_conf/nkzw/tbt/tools/TgData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9057A592-E78A-7540-B9EF-DD96DB8605E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB9DBF5-216E-4844-AA51-C651210B99AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27400" yWindow="-20880" windowWidth="28340" windowHeight="20300" tabRatio="672" xr2:uid="{6C6E728F-E1B1-40F2-A28A-BFA250D2C246}"/>
+    <workbookView xWindow="-27440" yWindow="-21220" windowWidth="28340" windowHeight="20300" tabRatio="672" xr2:uid="{6C6E728F-E1B1-40F2-A28A-BFA250D2C246}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="23" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="139">
   <si>
     <t>No.</t>
   </si>
@@ -467,6 +467,64 @@
   </si>
   <si>
     <t>インデックス情報</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>INTのサンプルカラム</t>
+  </si>
+  <si>
+    <t>BIGINTのサンプルカラム</t>
+  </si>
+  <si>
+    <t>REALのサンプルカラム</t>
+  </si>
+  <si>
+    <t>DOUBLEのサンプルカラム</t>
+  </si>
+  <si>
+    <t>DECIMAL(10,2)のサンプルカラム</t>
+  </si>
+  <si>
+    <t>DECIMALのサンプルカラム</t>
+  </si>
+  <si>
+    <t>CHAR(10)のサンプルカラム</t>
+  </si>
+  <si>
+    <t>CHARACTER(10)のサンプルカラム</t>
+  </si>
+  <si>
+    <t>VARCHAR(12)のサンプルカラム</t>
+  </si>
+  <si>
+    <t>CHAR VARYING(12)のサンプルカラム</t>
+  </si>
+  <si>
+    <t>CHARACTER VARYINGのサンプルカラム</t>
+  </si>
+  <si>
+    <t>BINARY(14)のサンプルカラム</t>
+  </si>
+  <si>
+    <t>VARBINARYのサンプルカラム</t>
+  </si>
+  <si>
+    <t>BINARY VARYINGのサンプルカラム</t>
+  </si>
+  <si>
+    <t>DATEのサンプルカラム</t>
+  </si>
+  <si>
+    <t>TIMEのサンプルカラム</t>
+  </si>
+  <si>
+    <t>TIMESTAMP のサンプルカラム</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH TIME ZONEのサンプルカラム</t>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -848,19 +906,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1229,6 +1274,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1263,91 +1323,91 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1368,18 +1428,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1392,6 +1446,57 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1413,34 +1518,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1452,55 +1557,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1825,8 +1885,8 @@
   </sheetPr>
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1854,107 +1914,107 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="58"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:14" ht="18">
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="76">
         <v>45778</v>
       </c>
-      <c r="G3" s="62"/>
+      <c r="G3" s="77"/>
     </row>
     <row r="4" spans="1:14" ht="18">
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="78">
         <v>45778</v>
       </c>
-      <c r="G4" s="64"/>
+      <c r="G4" s="79"/>
     </row>
     <row r="5" spans="1:14" ht="18">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="60"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="65"/>
+      <c r="G5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="18">
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="65"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="80"/>
     </row>
     <row r="7" spans="1:14" ht="18">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
     </row>
     <row r="10" spans="1:14" ht="17" thickBot="1">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="12" spans="1:14" ht="21" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -2022,7 +2082,9 @@
       <c r="F14" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="41"/>
+      <c r="G14" s="84" t="s">
+        <v>120</v>
+      </c>
       <c r="J14" s="1" t="str">
         <f>CONCATENATE("""",C14,""" ",D14,",")</f>
         <v>"int_col1" INT,</v>
@@ -2054,13 +2116,15 @@
       <c r="D15" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="46" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="41"/>
+      <c r="G15" s="85" t="s">
+        <v>121</v>
+      </c>
       <c r="J15" s="1" t="str">
         <f>CONCATENATE("""",C15,""" ",D15,",")</f>
         <v>"bigint_col2" BIGINT,</v>
@@ -2086,17 +2150,19 @@
       <c r="B16" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="44"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="85" t="s">
+        <v>122</v>
+      </c>
       <c r="J16" s="1" t="str">
         <f t="shared" ref="J16:J31" si="0">CONCATENATE("""",C16,""" ",D16,",")</f>
         <v>"real_col3" REAL,</v>
@@ -2122,17 +2188,19 @@
       <c r="B17" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="44"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="85" t="s">
+        <v>123</v>
+      </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>"double_col4" DOUBLE,</v>
@@ -2158,17 +2226,19 @@
       <c r="B18" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43" t="s">
+      <c r="E18" s="41"/>
+      <c r="F18" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="85" t="s">
+        <v>124</v>
+      </c>
       <c r="J18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>"decimal_col5" DECIMAL(10,2),</v>
@@ -2194,19 +2264,21 @@
       <c r="B19" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="44"/>
+      <c r="G19" s="85" t="s">
+        <v>125</v>
+      </c>
       <c r="J19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>"decimal_col6" DECIMAL,</v>
@@ -2232,19 +2304,21 @@
       <c r="B20" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="85" t="s">
+        <v>126</v>
+      </c>
       <c r="J20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>"char_col7" CHAR(10),</v>
@@ -2270,15 +2344,17 @@
       <c r="B21" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="85" t="s">
+        <v>127</v>
+      </c>
       <c r="J21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>"character_col8" CHARACTER(10),</v>
@@ -2304,15 +2380,17 @@
       <c r="B22" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="85" t="s">
+        <v>128</v>
+      </c>
       <c r="J22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>"varchar_col9" VARCHAR(12),</v>
@@ -2338,15 +2416,17 @@
       <c r="B23" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="85" t="s">
+        <v>129</v>
+      </c>
       <c r="J23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>"char_varying_col10" CHAR VARYING(12),</v>
@@ -2372,15 +2452,17 @@
       <c r="B24" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="85" t="s">
+        <v>130</v>
+      </c>
       <c r="J24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>"character_varying_col11" CHARACTER VARYING,</v>
@@ -2406,15 +2488,17 @@
       <c r="B25" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="85" t="s">
+        <v>131</v>
+      </c>
       <c r="J25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>"binary_col12" BINARY(14),</v>
@@ -2440,15 +2524,17 @@
       <c r="B26" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="85" t="s">
+        <v>132</v>
+      </c>
       <c r="J26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>"varbinary_col13" VARBINARY,</v>
@@ -2474,15 +2560,17 @@
       <c r="B27" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="44"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="85" t="s">
+        <v>133</v>
+      </c>
       <c r="J27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>"binary_varying_col14" BINARY VARYING,</v>
@@ -2508,15 +2596,17 @@
       <c r="B28" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="44"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="85" t="s">
+        <v>134</v>
+      </c>
       <c r="J28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>"date_col15" DATE,</v>
@@ -2542,15 +2632,17 @@
       <c r="B29" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="85" t="s">
+        <v>135</v>
+      </c>
       <c r="J29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>"time_col16" TIME,</v>
@@ -2576,15 +2668,17 @@
       <c r="B30" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="85" t="s">
+        <v>136</v>
+      </c>
       <c r="J30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>"timestamp_col17" TIMESTAMP ,</v>
@@ -2610,15 +2704,17 @@
       <c r="B31" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="44"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="85" t="s">
+        <v>137</v>
+      </c>
       <c r="J31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>"timestamp_with_time_zone_col18" TIMESTAMP WITH TIME ZONE,</v>
@@ -2641,12 +2737,12 @@
         <f t="array" aca="1" ref="A32" ca="1" xml:space="preserve"> _xlfn.LAMBDA(_xlpm._cell1,_xlpm._cell2, IF( INDIRECT( ADDRESS( ROW(), COLUMN() + 1, 4, 1 ) ) &lt;&gt; "", IFERROR( INDEX( _xlpm._cell1 : _xlpm._cell2, MATCH( MAX( _xlpm._cell1 : _xlpm._cell2 ) + 1, _xlpm._cell1 : _xlpm._cell2, 1 ) ) + 1, 1 ), "" ) )( INDIRECT( "$A$13" ), INDIRECT( ADDRESS( ROW() - 1, COLUMN(), 4, 1 ) ) )</f>
         <v/>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
       <c r="J32" s="1" t="str">
         <f t="shared" ref="J32" si="4">CONCATENATE("""",C32,""" ",D32,",")</f>
         <v>"" ,</v>
@@ -2697,10 +2793,10 @@
       <c r="B36" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="72"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="35"/>
@@ -2712,10 +2808,10 @@
       <c r="B37" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="72"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="35"/>
@@ -2723,8 +2819,8 @@
     <row r="38" spans="1:7" ht="18">
       <c r="A38" s="3"/>
       <c r="B38" s="13"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="73"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="60"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="35"/>
@@ -2732,8 +2828,8 @@
     <row r="39" spans="1:7" ht="19" thickBot="1">
       <c r="A39" s="4"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="75"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="61"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="36"/>
@@ -2776,10 +2872,10 @@
         <v>22</v>
       </c>
       <c r="D45" s="18"/>
-      <c r="E45" s="76" t="s">
+      <c r="E45" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="77"/>
+      <c r="F45" s="63"/>
       <c r="G45" s="19" t="s">
         <v>33</v>
       </c>
@@ -2800,10 +2896,10 @@
         <v>22</v>
       </c>
       <c r="D48" s="18"/>
-      <c r="E48" s="76" t="s">
+      <c r="E48" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="77"/>
+      <c r="F48" s="63"/>
       <c r="G48" s="19" t="s">
         <v>36</v>
       </c>
@@ -2824,10 +2920,10 @@
         <v>39</v>
       </c>
       <c r="D51" s="18"/>
-      <c r="E51" s="76" t="s">
+      <c r="E51" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F51" s="77"/>
+      <c r="F51" s="63"/>
       <c r="G51" s="19" t="s">
         <v>41</v>
       </c>
@@ -2856,108 +2952,127 @@
       <c r="A55" s="24">
         <v>1</v>
       </c>
-      <c r="B55" s="82" t="s">
+      <c r="B55" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="83"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="85"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="59"/>
     </row>
     <row r="56" spans="1:7" ht="18">
       <c r="A56" s="25">
         <v>2</v>
       </c>
-      <c r="B56" s="69" t="s">
+      <c r="B56" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="78"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="71"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="50"/>
     </row>
     <row r="57" spans="1:7" ht="18">
       <c r="A57" s="25">
         <v>3</v>
       </c>
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="78"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="71"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="50"/>
     </row>
     <row r="58" spans="1:7" ht="18">
       <c r="A58" s="25">
         <v>4</v>
       </c>
-      <c r="B58" s="69" t="s">
+      <c r="B58" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="78"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="71"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="50"/>
     </row>
     <row r="59" spans="1:7" ht="18">
       <c r="A59" s="25">
         <v>5</v>
       </c>
-      <c r="B59" s="69" t="s">
+      <c r="B59" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="78"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="71"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="50"/>
     </row>
     <row r="60" spans="1:7" ht="18">
       <c r="A60" s="25">
         <v>6</v>
       </c>
-      <c r="B60" s="69" t="s">
+      <c r="B60" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="78"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="71"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="50"/>
     </row>
     <row r="61" spans="1:7" ht="18">
       <c r="A61" s="25">
         <v>7</v>
       </c>
-      <c r="B61" s="69" t="s">
+      <c r="B61" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="78"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="71"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="50"/>
     </row>
     <row r="62" spans="1:7" ht="19" thickBot="1">
       <c r="A62" s="26">
         <v>8</v>
       </c>
-      <c r="B62" s="74" t="s">
+      <c r="B62" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C62" s="79"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
-      <c r="G62" s="81"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E51:F51"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="D61:G61"/>
     <mergeCell ref="B62:C62"/>
@@ -2974,25 +3089,6 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:G56"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <hyperlinks>
